--- a/public/bundles/metronic8/excel/report-subcontractor.xlsx
+++ b/public/bundles/metronic8/excel/report-subcontractor.xlsx
@@ -22,16 +22,16 @@
     <t>Subcontractors Report</t>
   </si>
   <si>
-    <t>1445 Willingham Dr</t>
+    <t>2589 Willingham Dr</t>
   </si>
   <si>
-    <t>Office: 404-684-5963</t>
+    <t>Office: 404-684-1236</t>
   </si>
   <si>
-    <t>East Point, Ga. 30344</t>
+    <t>Point, Ga. 5689</t>
   </si>
   <si>
-    <t>Fax: 404-684-5201</t>
+    <t>Fax: 404-456-5890</t>
   </si>
   <si>
     <t xml:space="preserve">data_t@cagconcrete.net </t>
@@ -95,7 +95,7 @@
     <font>
       <sz val="9.0"/>
       <color rgb="FF000000"/>
-      <name val="Abadi"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -104,13 +104,13 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Abadi"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF467886"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
@@ -155,7 +155,6 @@
     <border>
       <left/>
       <right/>
-      <bottom/>
     </border>
     <border>
       <left style="medium">
@@ -199,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -219,7 +218,7 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -228,10 +227,13 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -501,7 +503,6 @@
     <col customWidth="1" min="3" max="3" width="45.13"/>
     <col customWidth="1" min="4" max="4" width="44.63"/>
     <col customWidth="1" min="5" max="8" width="24.63"/>
-    <col customWidth="1" min="9" max="26" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -615,7 +616,7 @@
       <c r="D5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -632,14 +633,14 @@
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -648,7 +649,7 @@
       <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -657,13 +658,13 @@
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -672,7 +673,7 @@
       <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="14" t="s">
         <v>0</v>
       </c>
     </row>
@@ -703,1085 +704,1085 @@
       </c>
     </row>
     <row r="9" ht="18.0" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10">
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11">
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12">
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13">
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14">
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15">
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16">
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17">
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18">
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19">
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20">
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="F39" s="17"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="F41" s="17"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="F45" s="17"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="F46" s="17"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="F47" s="17"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="F48" s="17"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="F49" s="17"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="F51" s="17"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="F52" s="17"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="F53" s="17"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="F54" s="17"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="F55" s="17"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="F56" s="17"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="F57" s="17"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="F58" s="17"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="F59" s="17"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="F60" s="17"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="F61" s="17"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="F62" s="17"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="F63" s="17"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="F64" s="17"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="F65" s="17"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="F66" s="17"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="F67" s="17"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="F68" s="17"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="F69" s="17"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="F70" s="17"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="F71" s="17"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="F72" s="17"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="F73" s="17"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="F74" s="17"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="F75" s="17"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="F76" s="17"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="F77" s="17"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="F78" s="17"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="F79" s="17"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="F80" s="17"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="F81" s="17"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="F82" s="17"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="F83" s="17"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="F84" s="17"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="F85" s="17"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="F86" s="17"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="F87" s="17"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="F88" s="17"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="F89" s="17"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="F90" s="17"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="F91" s="17"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="F92" s="17"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="F93" s="17"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="F94" s="17"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="F95" s="17"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="F96" s="17"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="F97" s="17"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="F98" s="17"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="F99" s="17"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="F100" s="17"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="F101" s="17"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="F102" s="17"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="F103" s="17"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="F104" s="17"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="F105" s="17"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="F106" s="17"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="F107" s="17"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="F108" s="17"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="F109" s="17"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="F110" s="17"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="F111" s="17"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="F112" s="17"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="F113" s="17"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="F114" s="17"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="F115" s="17"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="F116" s="17"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="F117" s="17"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="F118" s="17"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="F119" s="17"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="F120" s="17"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="F121" s="17"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="F122" s="17"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="F123" s="17"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="F124" s="17"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="F125" s="17"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="F126" s="17"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="F127" s="17"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="F128" s="17"/>
-      <c r="G128" s="18"/>
-      <c r="H128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="F129" s="17"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="19"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="F130" s="17"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="F131" s="17"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="F132" s="17"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="F133" s="17"/>
-      <c r="G133" s="18"/>
-      <c r="H133" s="18"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="F134" s="17"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="18"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="F135" s="17"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="18"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="F136" s="17"/>
-      <c r="G136" s="18"/>
-      <c r="H136" s="18"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="F137" s="17"/>
-      <c r="G137" s="18"/>
-      <c r="H137" s="18"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="F138" s="17"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="18"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="F139" s="17"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="F140" s="17"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="F141" s="17"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="18"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="F142" s="17"/>
-      <c r="G142" s="18"/>
-      <c r="H142" s="18"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="19"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="F143" s="17"/>
-      <c r="G143" s="18"/>
-      <c r="H143" s="18"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="19"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="F144" s="17"/>
-      <c r="G144" s="18"/>
-      <c r="H144" s="18"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="19"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="F145" s="17"/>
-      <c r="G145" s="18"/>
-      <c r="H145" s="18"/>
+      <c r="F145" s="18"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="F146" s="17"/>
-      <c r="G146" s="18"/>
-      <c r="H146" s="18"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="F147" s="17"/>
-      <c r="G147" s="18"/>
-      <c r="H147" s="18"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="F148" s="17"/>
-      <c r="G148" s="18"/>
-      <c r="H148" s="18"/>
+      <c r="F148" s="18"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="19"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="F149" s="17"/>
-      <c r="G149" s="18"/>
-      <c r="H149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="F150" s="17"/>
-      <c r="G150" s="18"/>
-      <c r="H150" s="18"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="19"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="F151" s="17"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="19"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="F152" s="17"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="18"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="19"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="F153" s="17"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="F154" s="17"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="F155" s="17"/>
-      <c r="G155" s="18"/>
-      <c r="H155" s="18"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="19"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="F156" s="17"/>
-      <c r="G156" s="18"/>
-      <c r="H156" s="18"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="F157" s="17"/>
-      <c r="G157" s="18"/>
-      <c r="H157" s="18"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="19"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="F158" s="17"/>
-      <c r="G158" s="18"/>
-      <c r="H158" s="18"/>
+      <c r="F158" s="18"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="F159" s="17"/>
-      <c r="G159" s="18"/>
-      <c r="H159" s="18"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="19"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="F160" s="17"/>
-      <c r="G160" s="18"/>
-      <c r="H160" s="18"/>
+      <c r="F160" s="18"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="19"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="F161" s="17"/>
-      <c r="G161" s="18"/>
-      <c r="H161" s="18"/>
+      <c r="F161" s="18"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="19"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="F162" s="17"/>
-      <c r="G162" s="18"/>
-      <c r="H162" s="18"/>
+      <c r="F162" s="18"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="19"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="F163" s="17"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="18"/>
+      <c r="F163" s="18"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="F164" s="17"/>
-      <c r="G164" s="18"/>
-      <c r="H164" s="18"/>
+      <c r="F164" s="18"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="F165" s="17"/>
-      <c r="G165" s="18"/>
-      <c r="H165" s="18"/>
+      <c r="F165" s="18"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="F166" s="17"/>
-      <c r="G166" s="18"/>
-      <c r="H166" s="18"/>
+      <c r="F166" s="18"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="F167" s="17"/>
-      <c r="G167" s="18"/>
-      <c r="H167" s="18"/>
+      <c r="F167" s="18"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="F168" s="17"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="F169" s="17"/>
-      <c r="G169" s="18"/>
-      <c r="H169" s="18"/>
+      <c r="F169" s="18"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="F170" s="17"/>
-      <c r="G170" s="18"/>
-      <c r="H170" s="18"/>
+      <c r="F170" s="18"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="19"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="F171" s="17"/>
-      <c r="G171" s="18"/>
-      <c r="H171" s="18"/>
+      <c r="F171" s="18"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="19"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="F172" s="17"/>
-      <c r="G172" s="18"/>
-      <c r="H172" s="18"/>
+      <c r="F172" s="18"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="19"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="F173" s="17"/>
-      <c r="G173" s="18"/>
-      <c r="H173" s="18"/>
+      <c r="F173" s="18"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="19"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="F174" s="17"/>
-      <c r="G174" s="18"/>
-      <c r="H174" s="18"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="19"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="F175" s="17"/>
-      <c r="G175" s="18"/>
-      <c r="H175" s="18"/>
+      <c r="F175" s="18"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="19"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="F176" s="17"/>
-      <c r="G176" s="18"/>
-      <c r="H176" s="18"/>
+      <c r="F176" s="18"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="19"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="F177" s="17"/>
-      <c r="G177" s="18"/>
-      <c r="H177" s="18"/>
+      <c r="F177" s="18"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="19"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="F178" s="17"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
+      <c r="F178" s="18"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="19"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="F179" s="17"/>
-      <c r="G179" s="18"/>
-      <c r="H179" s="18"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="F180" s="17"/>
-      <c r="G180" s="18"/>
-      <c r="H180" s="18"/>
+      <c r="F180" s="18"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="F181" s="17"/>
-      <c r="G181" s="18"/>
-      <c r="H181" s="18"/>
+      <c r="F181" s="18"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="19"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="F182" s="17"/>
-      <c r="G182" s="18"/>
-      <c r="H182" s="18"/>
+      <c r="F182" s="18"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="19"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="F183" s="17"/>
-      <c r="G183" s="18"/>
-      <c r="H183" s="18"/>
+      <c r="F183" s="18"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="19"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="F184" s="17"/>
-      <c r="G184" s="18"/>
-      <c r="H184" s="18"/>
+      <c r="F184" s="18"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="19"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="F185" s="17"/>
-      <c r="G185" s="18"/>
-      <c r="H185" s="18"/>
+      <c r="F185" s="18"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="19"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="F186" s="17"/>
-      <c r="G186" s="18"/>
-      <c r="H186" s="18"/>
+      <c r="F186" s="18"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="19"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="F187" s="17"/>
-      <c r="G187" s="18"/>
-      <c r="H187" s="18"/>
+      <c r="F187" s="18"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="19"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="F188" s="17"/>
-      <c r="G188" s="18"/>
-      <c r="H188" s="18"/>
+      <c r="F188" s="18"/>
+      <c r="G188" s="19"/>
+      <c r="H188" s="19"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="F189" s="17"/>
-      <c r="G189" s="18"/>
-      <c r="H189" s="18"/>
+      <c r="F189" s="18"/>
+      <c r="G189" s="19"/>
+      <c r="H189" s="19"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="F190" s="17"/>
-      <c r="G190" s="18"/>
-      <c r="H190" s="18"/>
+      <c r="F190" s="18"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="19"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="F191" s="17"/>
-      <c r="G191" s="18"/>
-      <c r="H191" s="18"/>
+      <c r="F191" s="18"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="19"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="F192" s="17"/>
-      <c r="G192" s="18"/>
-      <c r="H192" s="18"/>
+      <c r="F192" s="18"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="19"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="F193" s="17"/>
-      <c r="G193" s="18"/>
-      <c r="H193" s="18"/>
+      <c r="F193" s="18"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="19"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="F194" s="17"/>
-      <c r="G194" s="18"/>
-      <c r="H194" s="18"/>
+      <c r="F194" s="18"/>
+      <c r="G194" s="19"/>
+      <c r="H194" s="19"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="F195" s="17"/>
-      <c r="G195" s="18"/>
-      <c r="H195" s="18"/>
+      <c r="F195" s="18"/>
+      <c r="G195" s="19"/>
+      <c r="H195" s="19"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="F196" s="17"/>
-      <c r="G196" s="18"/>
-      <c r="H196" s="18"/>
+      <c r="F196" s="18"/>
+      <c r="G196" s="19"/>
+      <c r="H196" s="19"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="F197" s="17"/>
-      <c r="G197" s="18"/>
-      <c r="H197" s="18"/>
+      <c r="F197" s="18"/>
+      <c r="G197" s="19"/>
+      <c r="H197" s="19"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="F198" s="17"/>
-      <c r="G198" s="18"/>
-      <c r="H198" s="18"/>
+      <c r="F198" s="18"/>
+      <c r="G198" s="19"/>
+      <c r="H198" s="19"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="F199" s="17"/>
-      <c r="G199" s="18"/>
-      <c r="H199" s="18"/>
+      <c r="F199" s="18"/>
+      <c r="G199" s="19"/>
+      <c r="H199" s="19"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="F200" s="17"/>
-      <c r="G200" s="18"/>
-      <c r="H200" s="18"/>
+      <c r="F200" s="18"/>
+      <c r="G200" s="19"/>
+      <c r="H200" s="19"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="F201" s="17"/>
-      <c r="G201" s="18"/>
-      <c r="H201" s="18"/>
+      <c r="F201" s="18"/>
+      <c r="G201" s="19"/>
+      <c r="H201" s="19"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="F202" s="17"/>
-      <c r="G202" s="18"/>
-      <c r="H202" s="18"/>
+      <c r="F202" s="18"/>
+      <c r="G202" s="19"/>
+      <c r="H202" s="19"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="F203" s="17"/>
-      <c r="G203" s="18"/>
-      <c r="H203" s="18"/>
+      <c r="F203" s="18"/>
+      <c r="G203" s="19"/>
+      <c r="H203" s="19"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="F204" s="17"/>
-      <c r="G204" s="18"/>
-      <c r="H204" s="18"/>
+      <c r="F204" s="18"/>
+      <c r="G204" s="19"/>
+      <c r="H204" s="19"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="F205" s="17"/>
-      <c r="G205" s="18"/>
-      <c r="H205" s="18"/>
+      <c r="F205" s="18"/>
+      <c r="G205" s="19"/>
+      <c r="H205" s="19"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="F206" s="17"/>
-      <c r="G206" s="18"/>
-      <c r="H206" s="18"/>
+      <c r="F206" s="18"/>
+      <c r="G206" s="19"/>
+      <c r="H206" s="19"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="F207" s="17"/>
-      <c r="G207" s="18"/>
-      <c r="H207" s="18"/>
+      <c r="F207" s="18"/>
+      <c r="G207" s="19"/>
+      <c r="H207" s="19"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="F208" s="17"/>
-      <c r="G208" s="18"/>
-      <c r="H208" s="18"/>
+      <c r="F208" s="18"/>
+      <c r="G208" s="19"/>
+      <c r="H208" s="19"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="F209" s="17"/>
-      <c r="G209" s="18"/>
-      <c r="H209" s="18"/>
+      <c r="F209" s="18"/>
+      <c r="G209" s="19"/>
+      <c r="H209" s="19"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="F210" s="17"/>
-      <c r="G210" s="18"/>
-      <c r="H210" s="18"/>
+      <c r="F210" s="18"/>
+      <c r="G210" s="19"/>
+      <c r="H210" s="19"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="F211" s="17"/>
-      <c r="G211" s="18"/>
-      <c r="H211" s="18"/>
+      <c r="F211" s="18"/>
+      <c r="G211" s="19"/>
+      <c r="H211" s="19"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="F212" s="17"/>
-      <c r="G212" s="18"/>
-      <c r="H212" s="18"/>
+      <c r="F212" s="18"/>
+      <c r="G212" s="19"/>
+      <c r="H212" s="19"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="F213" s="17"/>
-      <c r="G213" s="18"/>
-      <c r="H213" s="18"/>
+      <c r="F213" s="18"/>
+      <c r="G213" s="19"/>
+      <c r="H213" s="19"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="F214" s="17"/>
-      <c r="G214" s="18"/>
-      <c r="H214" s="18"/>
+      <c r="F214" s="18"/>
+      <c r="G214" s="19"/>
+      <c r="H214" s="19"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="F215" s="17"/>
-      <c r="G215" s="18"/>
-      <c r="H215" s="18"/>
+      <c r="F215" s="18"/>
+      <c r="G215" s="19"/>
+      <c r="H215" s="19"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="F216" s="17"/>
-      <c r="G216" s="18"/>
-      <c r="H216" s="18"/>
+      <c r="F216" s="18"/>
+      <c r="G216" s="19"/>
+      <c r="H216" s="19"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="F217" s="17"/>
-      <c r="G217" s="18"/>
-      <c r="H217" s="18"/>
+      <c r="F217" s="18"/>
+      <c r="G217" s="19"/>
+      <c r="H217" s="19"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="F218" s="17"/>
-      <c r="G218" s="18"/>
-      <c r="H218" s="18"/>
+      <c r="F218" s="18"/>
+      <c r="G218" s="19"/>
+      <c r="H218" s="19"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="F219" s="17"/>
-      <c r="G219" s="18"/>
-      <c r="H219" s="18"/>
+      <c r="F219" s="18"/>
+      <c r="G219" s="19"/>
+      <c r="H219" s="19"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="F220" s="17"/>
-      <c r="G220" s="18"/>
-      <c r="H220" s="18"/>
+      <c r="F220" s="18"/>
+      <c r="G220" s="19"/>
+      <c r="H220" s="19"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
